--- a/ControlCambios/08_Revision/Aceptadas/Revision_002.xlsx
+++ b/ControlCambios/08_Revision/Aceptadas/Revision_002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\EnSo_ControlCambios_gr1.2\ControlCambios\08_Revision\Aceptadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romar\Documents\GitHub\EnSo_ControlCambios_gr1.2\ControlCambios\08_Revision\Aceptadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3387BAAF-930C-4071-85C7-85441A0D76D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895ABF75-FE56-4989-85AA-CC20B11E29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B965BEB1-7E0C-47BA-A419-D3F48FE4337F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B965BEB1-7E0C-47BA-A419-D3F48FE4337F}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión" sheetId="1" r:id="rId1"/>
@@ -231,21 +231,218 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+  <borders count="36">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -254,7 +451,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -262,17 +459,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -283,17 +480,8 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -303,7 +491,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
@@ -314,17 +502,8 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -334,7 +513,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -344,284 +523,83 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -631,233 +609,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="2" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1177,277 +1150,282 @@
   <dimension ref="D4:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" ht="15" thickBot="1"/>
+    <row r="4" spans="4:11" ht="15.75" thickBot="1"/>
     <row r="5" spans="4:11">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="44">
         <v>45349</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="4:11" ht="15" thickBot="1">
-      <c r="D6" s="56" t="s">
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="10"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="15"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="4:11">
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="67" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="16"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="4:11">
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="16"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="4:11">
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="4:11">
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="10"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="4:11">
-      <c r="D15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="16" spans="4:11" ht="15" customHeight="1">
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="68"/>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="4:11">
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="4:11" ht="14.4" customHeight="1">
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="4:11">
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="4:11" s="30" customFormat="1">
-      <c r="D20" s="39" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="4:11" ht="14.45" customHeight="1">
+      <c r="D18" s="72"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="4:11" s="36" customFormat="1">
+      <c r="D19" s="73"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="4:11" s="36" customFormat="1">
+      <c r="D20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="4:11" ht="14.4" customHeight="1">
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="79" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="4:11" ht="14.45" customHeight="1">
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="10"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="10"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="4:11" ht="15" thickBot="1">
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="4:11" ht="15" thickBot="1">
-      <c r="D26" s="41" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D25" s="78"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D26" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43" t="s">
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="35" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G16:J18"/>
@@ -1464,9 +1442,6 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" xr:uid="{1BF119B2-BAAC-463D-A32B-336C0D918F62}"/>
